--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N2">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O2">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P2">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q2">
-        <v>29.913861484404</v>
+        <v>51.38993282305033</v>
       </c>
       <c r="R2">
-        <v>269.224753359636</v>
+        <v>462.509395407453</v>
       </c>
       <c r="S2">
-        <v>0.005480266883885705</v>
+        <v>0.02126631681509958</v>
       </c>
       <c r="T2">
-        <v>0.005480266883885705</v>
+        <v>0.02126631681509958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.05909</v>
       </c>
       <c r="O3">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P3">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q3">
-        <v>1.70345621076</v>
+        <v>2.825832503267777</v>
       </c>
       <c r="R3">
-        <v>15.33110589684</v>
+        <v>25.43249252941</v>
       </c>
       <c r="S3">
-        <v>0.0003120758804357168</v>
+        <v>0.001169393419676617</v>
       </c>
       <c r="T3">
-        <v>0.0003120758804357168</v>
+        <v>0.001169393419676618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H4">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N4">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O4">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P4">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q4">
-        <v>158.105816861208</v>
+        <v>13.30996280774222</v>
       </c>
       <c r="R4">
-        <v>1422.952351750872</v>
+        <v>119.78966526968</v>
       </c>
       <c r="S4">
-        <v>0.02896523649231705</v>
+        <v>0.005507963725916335</v>
       </c>
       <c r="T4">
-        <v>0.02896523649231706</v>
+        <v>0.005507963725916335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H5">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N5">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O5">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P5">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q5">
-        <v>102.115036036308</v>
+        <v>43.46861118078811</v>
       </c>
       <c r="R5">
-        <v>919.0353243267721</v>
+        <v>391.217500627093</v>
       </c>
       <c r="S5">
-        <v>0.01870763661282374</v>
+        <v>0.0179882947126248</v>
       </c>
       <c r="T5">
-        <v>0.01870763661282374</v>
+        <v>0.0179882947126248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H6">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N6">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P6">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q6">
-        <v>125.041555958556</v>
+        <v>470.8835962814964</v>
       </c>
       <c r="R6">
-        <v>1125.374003627004</v>
+        <v>4237.952366533467</v>
       </c>
       <c r="S6">
-        <v>0.02290781143673096</v>
+        <v>0.1948622851101317</v>
       </c>
       <c r="T6">
-        <v>0.02290781143673096</v>
+        <v>0.1948622851101317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H7">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N7">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P7">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q7">
-        <v>202.024342760484</v>
+        <v>6.869800148238666</v>
       </c>
       <c r="R7">
-        <v>1818.219084844356</v>
+        <v>61.828201334148</v>
       </c>
       <c r="S7">
-        <v>0.03701118011615723</v>
+        <v>0.002842878719299128</v>
       </c>
       <c r="T7">
-        <v>0.03701118011615724</v>
+        <v>0.002842878719299128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N8">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O8">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P8">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q8">
-        <v>54.59967774312567</v>
+        <v>56.54317730330967</v>
       </c>
       <c r="R8">
-        <v>491.397099688131</v>
+        <v>508.888595729787</v>
       </c>
       <c r="S8">
-        <v>0.01000274758785274</v>
+        <v>0.02339884596473301</v>
       </c>
       <c r="T8">
-        <v>0.01000274758785274</v>
+        <v>0.02339884596473301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.05909</v>
       </c>
       <c r="O9">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P9">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q9">
         <v>3.109199399265556</v>
@@ -1013,10 +1013,10 @@
         <v>27.98279459339</v>
       </c>
       <c r="S9">
-        <v>0.0005696102628567694</v>
+        <v>0.001286657051951637</v>
       </c>
       <c r="T9">
-        <v>0.0005696102628567694</v>
+        <v>0.001286657051951637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N10">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O10">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P10">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q10">
-        <v>288.5794819380403</v>
+        <v>14.64465014052445</v>
       </c>
       <c r="R10">
-        <v>2597.215337442362</v>
+        <v>131.80185126472</v>
       </c>
       <c r="S10">
-        <v>0.05286821893784818</v>
+        <v>0.006060287539332876</v>
       </c>
       <c r="T10">
-        <v>0.05286821893784818</v>
+        <v>0.006060287539332876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N11">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O11">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P11">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q11">
-        <v>186.3834284054875</v>
+        <v>47.82752679570523</v>
       </c>
       <c r="R11">
-        <v>1677.450855649387</v>
+        <v>430.447741161347</v>
       </c>
       <c r="S11">
-        <v>0.03414573979117379</v>
+        <v>0.01979211260739219</v>
       </c>
       <c r="T11">
-        <v>0.0341457397911738</v>
+        <v>0.01979211260739219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N12">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O12">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P12">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q12">
-        <v>228.2296006283121</v>
+        <v>518.1025389825437</v>
       </c>
       <c r="R12">
-        <v>2054.066405654809</v>
+        <v>4662.922850842893</v>
       </c>
       <c r="S12">
-        <v>0.04181202493358804</v>
+        <v>0.2144025518509378</v>
       </c>
       <c r="T12">
-        <v>0.04181202493358804</v>
+        <v>0.2144025518509378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N13">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O13">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P13">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q13">
-        <v>368.7408934730834</v>
+        <v>7.558685261521334</v>
       </c>
       <c r="R13">
-        <v>3318.668041257751</v>
+        <v>68.028167353692</v>
       </c>
       <c r="S13">
-        <v>0.06755391671143948</v>
+        <v>0.00312795496407102</v>
       </c>
       <c r="T13">
-        <v>0.0675539167114395</v>
+        <v>0.00312795496407102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H14">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I14">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J14">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N14">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O14">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P14">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q14">
-        <v>37.05142950607134</v>
+        <v>26.12320853948267</v>
       </c>
       <c r="R14">
-        <v>333.462865554642</v>
+        <v>235.108876855344</v>
       </c>
       <c r="S14">
-        <v>0.006787880669588985</v>
+        <v>0.01081037468837419</v>
       </c>
       <c r="T14">
-        <v>0.006787880669588986</v>
+        <v>0.01081037468837419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H15">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I15">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J15">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.05909</v>
       </c>
       <c r="O15">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P15">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q15">
-        <v>2.109907734331111</v>
+        <v>1.436464453742222</v>
       </c>
       <c r="R15">
-        <v>18.98916960898</v>
+        <v>12.92818008368</v>
       </c>
       <c r="S15">
-        <v>0.0003865384444110486</v>
+        <v>0.0005944414886101774</v>
       </c>
       <c r="T15">
-        <v>0.0003865384444110487</v>
+        <v>0.0005944414886101774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H16">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I16">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J16">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N16">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O16">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P16">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q16">
-        <v>195.8305025577205</v>
+        <v>6.765895866737779</v>
       </c>
       <c r="R16">
-        <v>1762.474523019484</v>
+        <v>60.89306280064001</v>
       </c>
       <c r="S16">
-        <v>0.03587645876415185</v>
+        <v>0.002799880776950154</v>
       </c>
       <c r="T16">
-        <v>0.03587645876415185</v>
+        <v>0.002799880776950154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H17">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I17">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J17">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N17">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O17">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P17">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q17">
-        <v>126.4800955631149</v>
+        <v>22.09653783178489</v>
       </c>
       <c r="R17">
-        <v>1138.320860068034</v>
+        <v>198.868840486064</v>
       </c>
       <c r="S17">
-        <v>0.02317135417460625</v>
+        <v>0.009144047252710123</v>
       </c>
       <c r="T17">
-        <v>0.02317135417460625</v>
+        <v>0.009144047252710123</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H18">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I18">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J18">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N18">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O18">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P18">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q18">
-        <v>154.8769756236042</v>
+        <v>239.3657611080907</v>
       </c>
       <c r="R18">
-        <v>1393.892780612438</v>
+        <v>2154.291849972816</v>
       </c>
       <c r="S18">
-        <v>0.02837370765485854</v>
+        <v>0.09905496720417679</v>
       </c>
       <c r="T18">
-        <v>0.02837370765485854</v>
+        <v>0.09905496720417679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H19">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I19">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J19">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N19">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O19">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P19">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q19">
-        <v>250.2281659023868</v>
+        <v>3.492147431189334</v>
       </c>
       <c r="R19">
-        <v>2252.053493121482</v>
+        <v>31.429326880704</v>
       </c>
       <c r="S19">
-        <v>0.04584219699370018</v>
+        <v>0.001445129611132666</v>
       </c>
       <c r="T19">
-        <v>0.04584219699370019</v>
+        <v>0.001445129611132666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H20">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I20">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J20">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N20">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O20">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P20">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q20">
-        <v>93.562185499021</v>
+        <v>30.92400215849467</v>
       </c>
       <c r="R20">
-        <v>842.059669491189</v>
+        <v>278.316019426452</v>
       </c>
       <c r="S20">
-        <v>0.01714074082483745</v>
+        <v>0.01279705169800095</v>
       </c>
       <c r="T20">
-        <v>0.01714074082483745</v>
+        <v>0.01279705169800095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H21">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I21">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J21">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.05909</v>
       </c>
       <c r="O21">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P21">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q21">
-        <v>5.327934210823333</v>
+        <v>1.700450762048889</v>
       </c>
       <c r="R21">
-        <v>47.95140789740999</v>
+        <v>15.30405685844</v>
       </c>
       <c r="S21">
-        <v>0.0009760860004757282</v>
+        <v>0.0007036849952446135</v>
       </c>
       <c r="T21">
-        <v>0.0009760860004757283</v>
+        <v>0.0007036849952446135</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H22">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I22">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J22">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N22">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O22">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P22">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q22">
-        <v>494.5107395564754</v>
+        <v>8.009298630791111</v>
       </c>
       <c r="R22">
-        <v>4450.596656008278</v>
+        <v>72.08368767712001</v>
       </c>
       <c r="S22">
-        <v>0.09059515205451167</v>
+        <v>0.003314428970663071</v>
       </c>
       <c r="T22">
-        <v>0.09059515205451169</v>
+        <v>0.003314428970663071</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H23">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I23">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J23">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N23">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O23">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P23">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q23">
-        <v>319.3872495815837</v>
+        <v>26.15732989202355</v>
       </c>
       <c r="R23">
-        <v>2874.485246234253</v>
+        <v>235.415969028212</v>
       </c>
       <c r="S23">
-        <v>0.0585122508483182</v>
+        <v>0.01082449487599523</v>
       </c>
       <c r="T23">
-        <v>0.05851225084831821</v>
+        <v>0.01082449487599523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H24">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I24">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J24">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N24">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O24">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P24">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q24">
-        <v>391.0949865091857</v>
+        <v>283.3552127407587</v>
       </c>
       <c r="R24">
-        <v>3519.854878582671</v>
+        <v>2550.196914666828</v>
       </c>
       <c r="S24">
-        <v>0.07164922202161891</v>
+        <v>0.1172587974789502</v>
       </c>
       <c r="T24">
-        <v>0.07164922202161891</v>
+        <v>0.1172587974789502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H25">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I25">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J25">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N25">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O25">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P25">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q25">
-        <v>631.8755952831076</v>
+        <v>4.133916954981334</v>
       </c>
       <c r="R25">
-        <v>5686.880357547969</v>
+        <v>37.205252594832</v>
       </c>
       <c r="S25">
-        <v>0.1157606115603291</v>
+        <v>0.001710708359060403</v>
       </c>
       <c r="T25">
-        <v>0.1157606115603291</v>
+        <v>0.001710708359060403</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H26">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I26">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J26">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N26">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O26">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P26">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q26">
-        <v>12.65777777028367</v>
+        <v>12.37749540219833</v>
       </c>
       <c r="R26">
-        <v>113.919999932553</v>
+        <v>111.397458619785</v>
       </c>
       <c r="S26">
-        <v>0.002318924969758122</v>
+        <v>0.005122087617957001</v>
       </c>
       <c r="T26">
-        <v>0.002318924969758122</v>
+        <v>0.005122087617957001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H27">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I27">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J27">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.05909</v>
       </c>
       <c r="O27">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P27">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q27">
-        <v>0.7208019656188888</v>
+        <v>0.6806144101611109</v>
       </c>
       <c r="R27">
-        <v>6.48721769057</v>
+        <v>6.125529691449999</v>
       </c>
       <c r="S27">
-        <v>0.000132052063692292</v>
+        <v>0.0002816536407091022</v>
       </c>
       <c r="T27">
-        <v>0.000132052063692292</v>
+        <v>0.0002816536407091022</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H28">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I28">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J28">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N28">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O28">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P28">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q28">
-        <v>66.90103499548955</v>
+        <v>3.205764133288889</v>
       </c>
       <c r="R28">
-        <v>602.109314959406</v>
+        <v>28.8518771996</v>
       </c>
       <c r="S28">
-        <v>0.01225637575324772</v>
+        <v>0.001326617723509178</v>
       </c>
       <c r="T28">
-        <v>0.01225637575324772</v>
+        <v>0.001326617723509178</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H29">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I29">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J29">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N29">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O29">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P29">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q29">
-        <v>43.20904654272011</v>
+        <v>10.46960961950944</v>
       </c>
       <c r="R29">
-        <v>388.881418884481</v>
+        <v>94.22648657558499</v>
       </c>
       <c r="S29">
-        <v>0.007915965880092159</v>
+        <v>0.004332561318294525</v>
       </c>
       <c r="T29">
-        <v>0.007915965880092161</v>
+        <v>0.004332561318294525</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H30">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I30">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J30">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N30">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O30">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P30">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q30">
-        <v>52.91019443274078</v>
+        <v>113.4144223930683</v>
       </c>
       <c r="R30">
-        <v>476.191749894667</v>
+        <v>1020.729801537615</v>
       </c>
       <c r="S30">
-        <v>0.009693231564934493</v>
+        <v>0.04693345380149405</v>
       </c>
       <c r="T30">
-        <v>0.009693231564934495</v>
+        <v>0.04693345380149405</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H31">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I31">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J31">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N31">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O31">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P31">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q31">
-        <v>85.4847588360681</v>
+        <v>1.654622123006667</v>
       </c>
       <c r="R31">
-        <v>769.3628295246128</v>
+        <v>14.89159910706</v>
       </c>
       <c r="S31">
-        <v>0.01566094344491459</v>
+        <v>0.0006847200676111687</v>
       </c>
       <c r="T31">
-        <v>0.01566094344491459</v>
+        <v>0.0006847200676111686</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H32">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I32">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J32">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.345887</v>
+        <v>0.358199</v>
       </c>
       <c r="N32">
-        <v>1.037661</v>
+        <v>1.074597</v>
       </c>
       <c r="O32">
-        <v>0.04833359961208698</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="P32">
-        <v>0.04833359961208697</v>
+        <v>0.08728684579662628</v>
       </c>
       <c r="Q32">
-        <v>36.04247539763633</v>
+        <v>33.570346878777</v>
       </c>
       <c r="R32">
-        <v>324.382278578727</v>
+        <v>302.133121908993</v>
       </c>
       <c r="S32">
-        <v>0.006603038676163979</v>
+        <v>0.01389216901246156</v>
       </c>
       <c r="T32">
-        <v>0.00660303867616398</v>
+        <v>0.01389216901246156</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H33">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I33">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J33">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.05909</v>
       </c>
       <c r="O33">
-        <v>0.002752375198719254</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="P33">
-        <v>0.002752375198719253</v>
+        <v>0.004799733963637202</v>
       </c>
       <c r="Q33">
-        <v>2.052452459181111</v>
+        <v>1.84596811369</v>
       </c>
       <c r="R33">
-        <v>18.47207213263</v>
+        <v>16.61371302321</v>
       </c>
       <c r="S33">
-        <v>0.0003760125468476983</v>
+        <v>0.0007639033674450548</v>
       </c>
       <c r="T33">
-        <v>0.0003760125468476984</v>
+        <v>0.0007639033674450548</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H34">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I34">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J34">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.828140666666667</v>
+        <v>0.09277333333333333</v>
       </c>
       <c r="N34">
-        <v>5.484422</v>
+        <v>0.27832</v>
       </c>
       <c r="O34">
-        <v>0.2554609424963657</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="P34">
-        <v>0.2554609424963656</v>
+        <v>0.02260724245658328</v>
       </c>
       <c r="Q34">
-        <v>190.4978070923505</v>
+        <v>8.69470037912</v>
       </c>
       <c r="R34">
-        <v>1714.480263831154</v>
+        <v>78.25230341208001</v>
       </c>
       <c r="S34">
-        <v>0.03489950049428918</v>
+        <v>0.003598063720211672</v>
       </c>
       <c r="T34">
-        <v>0.03489950049428919</v>
+        <v>0.003598063720211672</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H35">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I35">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J35">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>1.180732333333333</v>
+        <v>0.3029856666666667</v>
       </c>
       <c r="N35">
-        <v>3.542197</v>
+        <v>0.908957</v>
       </c>
       <c r="O35">
-        <v>0.1649933181888263</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="P35">
-        <v>0.1649933181888262</v>
+        <v>0.07383231992529668</v>
       </c>
       <c r="Q35">
-        <v>123.0358934431199</v>
+        <v>28.395763051537</v>
       </c>
       <c r="R35">
-        <v>1107.323040988079</v>
+        <v>255.561867463833</v>
       </c>
       <c r="S35">
-        <v>0.02254037088181209</v>
+        <v>0.01175080915827982</v>
       </c>
       <c r="T35">
-        <v>0.0225403708818121</v>
+        <v>0.01175080915827982</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H36">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I36">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J36">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.445826333333333</v>
+        <v>3.282161</v>
       </c>
       <c r="N36">
-        <v>4.337479</v>
+        <v>9.846483000000001</v>
       </c>
       <c r="O36">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="P36">
-        <v>0.2020370557550447</v>
+        <v>0.7998053626244092</v>
       </c>
       <c r="Q36">
-        <v>150.6594929801392</v>
+        <v>307.6035479775031</v>
       </c>
       <c r="R36">
-        <v>1355.935436821253</v>
+        <v>2768.431931797527</v>
       </c>
       <c r="S36">
-        <v>0.02760105814331373</v>
+        <v>0.1272933071787187</v>
       </c>
       <c r="T36">
-        <v>0.02760105814331373</v>
+        <v>0.1272933071787187</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H37">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I37">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J37">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>2.335960333333333</v>
+        <v>0.047884</v>
       </c>
       <c r="N37">
-        <v>7.007880999999999</v>
+        <v>0.143652</v>
       </c>
       <c r="O37">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="P37">
-        <v>0.3264227087489572</v>
+        <v>0.01166849523344748</v>
       </c>
       <c r="Q37">
-        <v>243.4141579302519</v>
+        <v>4.487680004532001</v>
       </c>
       <c r="R37">
-        <v>2190.727421372267</v>
+        <v>40.389120040788</v>
       </c>
       <c r="S37">
-        <v>0.04459385992241656</v>
+        <v>0.001857103512273092</v>
       </c>
       <c r="T37">
-        <v>0.04459385992241658</v>
+        <v>0.001857103512273092</v>
       </c>
     </row>
   </sheetData>
